--- a/glomosim/doc/schedule.xlsx
+++ b/glomosim/doc/schedule.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -21,7 +21,7 @@
     <author>tianke</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0">
+    <comment ref="A9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -45,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A4" authorId="0">
+    <comment ref="A10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -95,10 +95,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
-  <si>
-    <r>
-      <t>2.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
+  <si>
+    <r>
+      <t xml:space="preserve">                        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>i.</t>
     </r>
     <r>
       <rPr>
@@ -107,6 +116,80 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
+      <t xml:space="preserve">              </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Add neighbor’ ETX to Hello packets</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>i.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">              </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>store ETX</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>i-D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> into the table</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
       <t xml:space="preserve">     </t>
     </r>
     <r>
@@ -116,21 +199,474 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
+      <t xml:space="preserve">select candidate </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Forwarding</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>b)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>sort candidates in CS</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>a)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Delay</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>b)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Decided to forwarding or discarding </t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">     b)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ETX</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>i-j</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> add ETX</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>j-D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> , get ETX</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>i-D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (one-hop neighbors’ delivery rate table)</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">     c)   add ETX</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">i-D </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>to RREP</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>工期</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>步骤</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>(ETXi-&gt;j-&gt;D - ETXi-&gt;jk-&gt;D &lt; threshold) &amp;&amp; (ETXj-&gt;jk &lt; threshold)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>a)   Calculate ETX from location (when recieves a Hello packet)</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划完成时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成情况</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>a)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Two-hop Neighbors' ETX  table (TNET)</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>a)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>when a packet arrives</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, select candidate for ONDRT to add them into Candidate Set (CS)</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2008-3-26</t>
+  </si>
+  <si>
+    <t>在各种拓扑结构下OR的效率，哪种拓扑更适合OR</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     d)   add etx into Nbr and routing table</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUM</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
       <t>set two tables</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>i.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
     </r>
     <r>
       <rPr>
@@ -139,30 +675,37 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">              </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Add neighbor’ ETX to Hello packets</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>i.</t>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>add ETX to RREP</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>b)</t>
     </r>
     <r>
       <rPr>
@@ -171,461 +714,12 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">              </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>store ETX</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>i-D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> into the table</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">select candidate </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>4.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Forwarding</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>add ETX to RREP</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>b)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
       <t xml:space="preserve">      </t>
     </r>
     <r>
       <rPr>
         <sz val="14"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>sort candidates in CS</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>a)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Delay</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>b)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Decided to forwarding or discarding </t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">     b)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>ETX</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>i-j</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> add ETX</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>j-D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> , get ETX</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>i-D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (one-hop neighbors’ delivery rate table)</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">     c)   add ETX</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">i-D </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>to RREP</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>工期</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>步骤</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>(ETXi-&gt;j-&gt;D - ETXi-&gt;jk-&gt;D &lt; threshold) &amp;&amp; (ETXj-&gt;jk &lt; threshold)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>a)   Calculate ETX from location (when recieves a Hello packet)</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划完成时间</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成情况</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>a)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Two-hop Neighbors' ETX  table (TNET)</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>b)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -640,69 +734,89 @@
       </rPr>
       <t>ne-hop Neighbors’ Delivery Rate Table (ONDRT)</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>a)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>when a packet arrives</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>, select candidate for ONDRT to add them into Candidate Set (CS)</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>SUM</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2008-3-26</t>
-  </si>
-  <si>
-    <t>在各种拓扑结构下OR的效率，哪种拓扑更适合OR</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">     d)   add etx into Nbr and routing table</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在邻居表中建立表项</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            ii.      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>从邻居表中计算出两跳邻居</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>etx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表，当收到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>hello</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>包是更新相应的表项（即与</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>hello</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>包的发送者相关的邻居）。</t>
+    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -710,7 +824,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -801,11 +915,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
@@ -853,7 +962,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -884,17 +993,20 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1023,11 +1135,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A1:D19" totalsRowCount="1" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A1:D20" totalsRowCount="1" headerRowDxfId="7">
   <tableColumns count="4">
     <tableColumn id="1" name="步骤" totalsRowLabel="SUM" dataDxfId="6" totalsRowDxfId="2"/>
     <tableColumn id="2" name="工期" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="1">
-      <totalsRowFormula>SUM(B2:B18)</totalsRowFormula>
+      <totalsRowFormula>SUM(B2:B19)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="4" name="计划完成时间" totalsRowLabel="2008-3-26" dataDxfId="4" totalsRowDxfId="0"/>
     <tableColumn id="3" name="完成情况" dataDxfId="3"/>
@@ -1321,10 +1433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1338,242 +1450,244 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18.75">
       <c r="A1" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.75">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="20.25">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18.75">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="B4" s="6"/>
-      <c r="C4" s="7">
-        <v>39525</v>
-      </c>
+      <c r="C4" s="12"/>
       <c r="D4" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="20.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="39">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B5" s="6">
         <v>1</v>
       </c>
-      <c r="C5" s="7">
-        <v>39526</v>
-      </c>
+      <c r="C5" s="7"/>
       <c r="D5" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="18.75">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="19.5">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="18.75">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="20.25">
+      <c r="A7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8">
+        <v>39526</v>
+      </c>
       <c r="D7" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.75">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.75">
-      <c r="A9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="6">
-        <v>1</v>
-      </c>
-      <c r="C9" s="7">
-        <v>39527</v>
-      </c>
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="18.75">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="20.25">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20.25">
-      <c r="A11" s="2" t="s">
-        <v>2</v>
+      <c r="A11" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B11" s="6">
         <v>1</v>
       </c>
-      <c r="C11" s="8">
-        <v>39528</v>
-      </c>
+      <c r="C11" s="7"/>
       <c r="D11" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="18.75">
       <c r="A12" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
+      <c r="C12" s="8">
+        <v>39528</v>
+      </c>
       <c r="D12" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="18.75">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18.75">
-      <c r="A14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="18.75">
+      <c r="A15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="6">
         <v>2</v>
       </c>
-      <c r="C14" s="7">
-        <v>39529</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="18.75">
-      <c r="A15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="6">
-        <v>1</v>
-      </c>
-      <c r="C15" s="9">
-        <v>39530</v>
-      </c>
+      <c r="C15" s="7"/>
       <c r="D15" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="18.75">
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
+      <c r="B16" s="6">
+        <v>1</v>
+      </c>
+      <c r="C16" s="9">
+        <v>39530</v>
+      </c>
       <c r="D16" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="18.75">
       <c r="A17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="6">
-        <v>1</v>
-      </c>
-      <c r="C17" s="7">
-        <v>39531</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
       <c r="D17" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="18.75">
       <c r="A18" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B18" s="6">
         <v>1</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="7"/>
+      <c r="D18" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="18.75">
+      <c r="A19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="6">
+        <v>1</v>
+      </c>
+      <c r="C19" s="9">
         <v>39532</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A19" s="10" t="s">
+      <c r="D19" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="20.25" customHeight="1">
+      <c r="A20" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="11">
-        <f>SUM(B2:B18)</f>
+      <c r="B20" s="14">
+        <f>SUM(B2:B19)</f>
         <v>8</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="13" t="s">
-        <v>25</v>
+      <c r="C20" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="11" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D22">
-      <formula1>$I$6:$I$17</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D23">
+      <formula1>$I$7:$I$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D19">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
